--- a/biology/Médecine/Conduit_auditif_externe_humain/Conduit_auditif_externe_humain.xlsx
+++ b/biology/Médecine/Conduit_auditif_externe_humain/Conduit_auditif_externe_humain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article ne traite que l'anatomie humaine. Le conduit auditif externe, appelé aussi canal auriculaire ou méat acoustique externe, est la partie de l'oreille externe, située entre le pavillon et le tympan.
 Pour le conduit auditif externe des animaux, voir l'article principal : oreille.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un canal ostéocartilagineux mesurant de 25 mm de long et de 8 à 10 mm de diamètre, qui dans le plan horizontal présente une double courbure en « S », dans le plan vertical il est ascendant puis descendant à partir de l'isthme du conduit (partie rétrécie médiane). Sa forme générale est celle d'un cylindre aplati d'avant en arrière.
 </t>
@@ -543,7 +557,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Une charpente fibrocartilagineuse en dehors, et osseuse en dedans :
 la partie cartilagineuse forme le cartilage du méat acoustique qui fait suite au cartilage de l'auricule. Elle est rattachée à la partie osseuse par une formation fibreuse sur tout son pourtour,
@@ -579,7 +595,9 @@
           <t>Rapports anatomiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La paroi antérieure est directement en rapport avec l’articulation temporo-mandibulaire, ce trait explique qu'il soit possible d'agrandir la lumière du conduit en ouvrant la bouche. Cette proximité explique également les fréquentes confusions entre douleur de l'articulation et otalgie. Les atteintes articulaires par mauvaise congruence dentaire, très algique, peuvent en imposer pour des problèmes otitiques.
 </t>
@@ -610,11 +628,13 @@
           <t>Neuroréflexes du conduit auditif externe humain</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Des réflexes peuvent être mise en évidence par la stimulation du conduit auditif externe humain[1],[2] :
-le réflexe rouge[3] ;
-le réflexe d'Arnold[4] ;
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Des réflexes peuvent être mise en évidence par la stimulation du conduit auditif externe humain, :
+le réflexe rouge ;
+le réflexe d'Arnold ;
 le réflexe lymphatique ;
 le réflexe de Kisch.</t>
         </is>
